--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478648</v>
+        <v>2726039.313102577</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>322.8156897822619</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>187.8370056895553</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.55882706447098</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>91.90342426864116</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2013025968596</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>195.6275052289086</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>209.1017767689394</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>180.1365883827062</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.39305445341908</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>35.4652731219028</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>140.1230996349835</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.2301075198431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>186.9015203136212</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>159.7642955692163</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>122.6028762599956</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.814130455270979</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>132.4116178914867</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>180.0572044082428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>141.9101287729429</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>179.4744566894681</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>174.3474135131864</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>71.05846343488115</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.2794366746835</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1781.603107998156</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.640591057745</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.374892450994</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>668.5866398527501</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F2" t="n">
-        <v>257.6007350631425</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>243.6773310017334</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.5384547146241</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>409.5384547146241</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.5384547146241</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>409.5384547146241</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>240.5386544529565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>82.79028188548665</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696253</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>478.852290671381</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862885</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601805</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>501.1085244247949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.220743617161</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.258226676749</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="D8" t="n">
-        <v>663.9925280699988</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="E8" t="n">
-        <v>278.2042754717546</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587067</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285933</v>
+        <v>2358.977903633529</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285933</v>
+        <v>2358.977903633529</v>
       </c>
       <c r="V8" t="n">
-        <v>2151.286341942362</v>
+        <v>2027.915016289958</v>
       </c>
       <c r="W8" t="n">
-        <v>2151.286341942362</v>
+        <v>1675.146361019844</v>
       </c>
       <c r="X8" t="n">
-        <v>1777.820583681283</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1777.820583681283</v>
+        <v>1301.680602758764</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>639.2602359987638</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465868</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1947.349985492878</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2106.862298161639</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.5984326639887</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>110.5984326639887</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5984326639887</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>110.5984326639887</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>110.5984326639887</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972705</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972705</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>620.8081818444795</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>331.3910118075189</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>331.3910118075189</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.5984326639887</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2305.424599100479</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2085.82313412342</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1796.747907467618</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.8641191832229</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.671666052305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1533.987177846418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1244.570007809457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1016.58045691144</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399322</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3334.979122486493</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.61713821475</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3516.627587316733</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3516.627587316733</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,19 +6065,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>526.5658826424045</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3278.063798229817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991042</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.110426554735</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2260.255592209639</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.65412723258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1751.578900576778</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.894412370891</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2063.313436506268</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1774.238209850466</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1519.553721644579</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444652</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3495.695470418422</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.695470418422</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.61713821475</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>3563.329808225389</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.537229081859</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958739</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>633.992644467967</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369644</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261136</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511905</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.398285759938</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450255</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326898</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8464,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>275.3456371407388</v>
+        <v>63.64207105006807</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>74.01734528517878</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478235</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>191.9420782949376</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-7.742005345385692e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>40.90318636666106</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.60187266209422</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>99.28295407562291</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.482525529411561</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>22.81817176293566</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>62.56111625485068</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>84.99383243580152</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>106.4657939283482</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.23519869956903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>77.79022981064165</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>75.37549921168802</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>37.12601365260474</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
@@ -26340,22 +26340,22 @@
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520055</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
@@ -26441,22 +26441,22 @@
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682726</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682782</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-225915.9568495607</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649837</v>
+        <v>364051.9223649839</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.1162711891</v>
+        <v>208248.1162711889</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193914</v>
+        <v>-232482.8572737482</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.213361415</v>
+        <v>538569.834107058</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.834107058</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070584</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688223</v>
+        <v>362146.6149144653</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.8341070581</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614151</v>
+        <v>538569.8341070581</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533571</v>
+        <v>414361.3233989998</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.2133614152</v>
+        <v>538569.834107058</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.2133614153</v>
+        <v>538569.8341070582</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.213361415</v>
+        <v>538569.834107058</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84.06035595944951</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>136.0857670748019</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4067947278673</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>273.3694675023664</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,7 +27791,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>56.51013809491937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>197.774268972772</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.51527473225977</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.5277221011514</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>117.2468235473297</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954392</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M24" t="n">
-        <v>504.7812948344581</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>361.553117211964</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>567.4250434254225</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>560.1612034965806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>202.2352659288688</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35184,10 +35184,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>471.6428218801149</v>
+        <v>259.9392557894442</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>212.6331008565868</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>301.7295808477647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121058</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M24" t="n">
-        <v>362.6472609124398</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>219.4190832899457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>436.0833313420891</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>418.0271695745623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>68.26085851453861</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2726039.313102577</v>
+        <v>2727799.843405361</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>322.8156897822619</v>
+        <v>307.7676307244759</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38.85099796338696</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>269.2712215852829</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>207.2013025968596</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1186,10 +1186,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>180.1365883827062</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>225.4535467620234</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,28 +1293,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>84.74715535136704</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>35.4652731219028</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.85912858529821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>80.70399854267949</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>141.9101287729429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>180.2794366746835</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>951.4492202526051</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4418,22 +4418,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
     </row>
     <row r="5">
@@ -4552,34 +4552,34 @@
         <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626212</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>743.8979228366049</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1301.680602758764</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="C8" t="n">
-        <v>1301.680602758764</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.680602758764</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605201</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,16 +4804,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2358.977903633529</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2358.977903633529</v>
+        <v>2313.203198199875</v>
       </c>
       <c r="V8" t="n">
-        <v>2027.915016289958</v>
+        <v>1982.140310856305</v>
       </c>
       <c r="W8" t="n">
-        <v>1675.146361019844</v>
+        <v>1629.371655586191</v>
       </c>
       <c r="X8" t="n">
-        <v>1301.680602758764</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="Y8" t="n">
-        <v>1301.680602758764</v>
+        <v>1255.905897325111</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317425</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1828.690733635983</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1988.203046304744</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>583.0770220271492</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>497.4738348035461</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5126,16 +5126,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,16 +5652,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,37 +5673,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6074,16 +6074,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6545,19 +6545,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.6979859831846</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>755.7618030552777</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7092,55 +7092,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1327.139029956954</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1106.346450813424</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012738</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806851</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.09861476989</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871873</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.3164847283425</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.354624631591</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2014.962104402028</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.886877746226</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1471.202389540339</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1181.785219503378</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>953.7956686053609</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.0030894618308</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>63.64207105006807</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,10 +8534,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517878</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,13 +8546,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>311.7999084534176</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>171.4336447811485</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.70534424526943</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.12601365260474</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256046</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256046</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
@@ -26447,19 +26447,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682782</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495607</v>
+        <v>-225915.9568495604</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649839</v>
+        <v>364051.9223649836</v>
       </c>
       <c r="D6" t="n">
         <v>208248.1162711889</v>
       </c>
       <c r="E6" t="n">
-        <v>-232482.8572737482</v>
+        <v>-232170.2159448273</v>
       </c>
       <c r="F6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="G6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.475435979</v>
       </c>
       <c r="H6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359798</v>
       </c>
       <c r="I6" t="n">
-        <v>538569.8341070584</v>
+        <v>538882.4754359801</v>
       </c>
       <c r="J6" t="n">
-        <v>362146.6149144653</v>
+        <v>362459.2562433864</v>
       </c>
       <c r="K6" t="n">
-        <v>538569.8341070581</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="L6" t="n">
-        <v>538569.8341070581</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="M6" t="n">
-        <v>414361.3233989998</v>
+        <v>414673.9647279212</v>
       </c>
       <c r="N6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359794</v>
       </c>
       <c r="O6" t="n">
-        <v>538569.8341070582</v>
+        <v>538882.4754359798</v>
       </c>
       <c r="P6" t="n">
-        <v>538569.834107058</v>
+        <v>538882.4754359793</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>84.06035595944951</v>
+        <v>99.10841501723559</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>179.7336553887078</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>112.6591484869788</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>206.5828674239353</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>32.51527473225977</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>25.70123946027721</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>82.49966574726079</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2468235473297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515239</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2555750770852</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710414</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>259.9392557894442</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>212.6331008565868</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35266,13 +35266,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>421.5874110062447</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716497</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9138629937518</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966825</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
